--- a/csv_files/paper/2d_110classes_10z/summary.xlsx
+++ b/csv_files/paper/2d_110classes_10z/summary.xlsx
@@ -71,9 +71,6 @@
     <t>chisquare</t>
   </si>
   <si>
-    <t>Std/sqrt(3)</t>
-  </si>
-  <si>
     <t>true-out</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>bins</t>
+  </si>
+  <si>
+    <t>Std/sqrt(7)</t>
   </si>
 </sst>
 </file>
@@ -267,6 +267,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -325,10 +326,10 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>גיליון1!$O$3:$O$21</c:f>
+                <c:f>גיליון1!$O$3:$O$112</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="19"/>
+                  <c:ptCount val="110"/>
                   <c:pt idx="0">
                     <c:v>0</c:v>
                   </c:pt>
@@ -351,50 +352,323 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.29880715233359845</c:v>
+                    <c:v>0.19561519910898789</c:v>
                   </c:pt>
                   <c:pt idx="8">
+                    <c:v>0.34992710611188255</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.456862718169367</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.8831793201773546</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.2748266818136136</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>6.7634974650090367</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>12.879246872391256</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>12.285298996303322</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>15.173066228535028</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>16.927139782742085</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>31.484325546246669</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>28.717439414589386</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>35.094042752790592</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>54.916913122814677</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>52.227109037044606</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>40.63061578139704</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>67.038216332026551</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>68.431535128184862</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>74.509946603504829</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>76.034212895329205</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>100.74715775602985</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>100.66650335617695</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>101.05776030749615</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>108.47720300334338</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>113.66958920575054</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>110.63411844121732</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>125.59904417613689</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>124.18452366686981</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>125.50671784605713</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>126.12611116801844</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>118.56986875049749</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>116.46825572591329</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>123.86805850729777</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>119.03788412578096</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>122.3547869008443</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>139.10046288747643</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>125.56597379668668</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>115.11874969183883</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>129.77790093628641</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>124.04096385583962</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>115.42749955301475</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>106.8072840136259</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>109.25587828018915</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>92.185206214977683</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>98.098191125223181</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>95.579222402685616</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>92.361631202395643</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>76.458455439298959</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>79.281708393010078</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>75.490775216957076</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>83.390631661953435</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>81.390576975520716</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>70.165329539507994</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>61.116149039917325</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>58.097538498561505</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>53.451007512315726</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>53.486957212359115</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>49.000104123171333</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>41.799539837326492</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>47.040120739467419</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>36.769968890997141</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>35.127028955852587</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>31.296108840739748</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>29.056902302698603</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>29.860517580981103</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>27.976256332242649</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>20.532639521364164</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>18.548268525825328</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>16.111774753709962</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>17.003000935609176</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>18.60957620502445</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>12.804654765883749</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>13.37670454520828</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>10.112504887615176</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>8.1635076494639947</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>8.4586328320689681</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>6.3613549448756492</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>4.7226657121345594</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>3.0152672741722046</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>3.4046786536608526</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>2.6244532958391193</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>1.9633114466978216</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>2.4327694808466287</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>1.7194861596015316</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>0.83299312783504276</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>1.4133113526720984</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>0.81909606722712247</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
                     <c:v>0.53452248382484879</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>2.2253945610567474</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>5.931654390599963</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>5.0023803857573164</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>10.331413032015284</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>19.673374562252068</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>18.76610419524166</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>23.177241505613299</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>25.85663311783799</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>48.093101673435754</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>43.866613294221402</c:v>
+                  <c:pt idx="95">
+                    <c:v>0.69802929591757357</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>0.37457458863219695</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>0.58684559732696362</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>0.2857142857142857</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>0.20203050891044214</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>0.17496355305594127</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>גיליון1!$O$3:$O$22</c:f>
+                <c:f>גיליון1!$O$3:$O$112</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="20"/>
+                  <c:ptCount val="110"/>
                   <c:pt idx="0">
                     <c:v>0</c:v>
                   </c:pt>
@@ -417,43 +691,313 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0.29880715233359845</c:v>
+                    <c:v>0.19561519910898789</c:v>
                   </c:pt>
                   <c:pt idx="8">
+                    <c:v>0.34992710611188255</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1.456862718169367</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3.8831793201773546</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>3.2748266818136136</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>6.7634974650090367</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>12.879246872391256</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>12.285298996303322</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>15.173066228535028</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>16.927139782742085</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>31.484325546246669</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>28.717439414589386</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>35.094042752790592</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>54.916913122814677</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>52.227109037044606</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>40.63061578139704</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>67.038216332026551</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>68.431535128184862</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>74.509946603504829</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>76.034212895329205</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>100.74715775602985</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>100.66650335617695</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>101.05776030749615</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>108.47720300334338</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>113.66958920575054</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>110.63411844121732</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>125.59904417613689</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>124.18452366686981</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>125.50671784605713</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>126.12611116801844</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>118.56986875049749</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>116.46825572591329</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>123.86805850729777</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>119.03788412578096</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>122.3547869008443</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>139.10046288747643</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>125.56597379668668</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>115.11874969183883</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>129.77790093628641</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>124.04096385583962</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>115.42749955301475</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>106.8072840136259</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>109.25587828018915</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>92.185206214977683</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>98.098191125223181</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>95.579222402685616</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>92.361631202395643</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>76.458455439298959</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>79.281708393010078</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>75.490775216957076</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>83.390631661953435</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>81.390576975520716</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>70.165329539507994</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>61.116149039917325</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>58.097538498561505</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>53.451007512315726</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>53.486957212359115</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>49.000104123171333</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>41.799539837326492</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>47.040120739467419</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>36.769968890997141</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>35.127028955852587</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>31.296108840739748</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>29.056902302698603</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>29.860517580981103</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>27.976256332242649</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>20.532639521364164</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>18.548268525825328</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>16.111774753709962</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>17.003000935609176</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>18.60957620502445</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>12.804654765883749</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>13.37670454520828</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>10.112504887615176</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>8.1635076494639947</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>8.4586328320689681</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>6.3613549448756492</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>4.7226657121345594</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>3.0152672741722046</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>3.4046786536608526</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>2.6244532958391193</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>1.9633114466978216</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>2.4327694808466287</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>1.7194861596015316</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>0.83299312783504276</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>1.4133113526720984</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>0.81909606722712247</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
                     <c:v>0.53452248382484879</c:v>
                   </c:pt>
-                  <c:pt idx="9">
-                    <c:v>2.2253945610567474</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>5.931654390599963</c:v>
-                  </c:pt>
-                  <c:pt idx="11">
-                    <c:v>5.0023803857573164</c:v>
-                  </c:pt>
-                  <c:pt idx="12">
-                    <c:v>10.331413032015284</c:v>
-                  </c:pt>
-                  <c:pt idx="13">
-                    <c:v>19.673374562252068</c:v>
-                  </c:pt>
-                  <c:pt idx="14">
-                    <c:v>18.76610419524166</c:v>
-                  </c:pt>
-                  <c:pt idx="15">
-                    <c:v>23.177241505613299</c:v>
-                  </c:pt>
-                  <c:pt idx="16">
-                    <c:v>25.85663311783799</c:v>
-                  </c:pt>
-                  <c:pt idx="17">
-                    <c:v>48.093101673435754</c:v>
-                  </c:pt>
-                  <c:pt idx="18">
-                    <c:v>43.866613294221402</c:v>
-                  </c:pt>
-                  <c:pt idx="19">
-                    <c:v>53.607035785559773</c:v>
+                  <c:pt idx="95">
+                    <c:v>0.69802929591757357</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>0.37457458863219695</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>0.58684559732696362</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>0.2857142857142857</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>0.20203050891044214</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>0.17496355305594127</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -839,138 +1383,678 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>גיליון1!$O$123:$O$142</c:f>
+                <c:f>גיליון1!$O$123:$O$232</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="20"/>
+                  <c:ptCount val="110"/>
                   <c:pt idx="0">
-                    <c:v>2.9714143655398599</c:v>
+                    <c:v>1.9452473215950841</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.5148515219886916</c:v>
+                    <c:v>2.9556641215713944</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.3103509034903951</c:v>
+                    <c:v>4.1310943824253865</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>5.3937105119907311</c:v>
+                    <c:v>3.5310123854109343</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>4.8119719731478785</c:v>
+                    <c:v>3.1501751155651658</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.6731426192402976</c:v>
+                    <c:v>3.0592899694275517</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>6.7349291446934236</c:v>
+                    <c:v>4.4090460865316858</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>2.2224634773968348</c:v>
+                    <c:v>1.4549438734922531</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.0166435905729099</c:v>
+                    <c:v>4.5934714826181553</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>6.3931236843682839</c:v>
+                    <c:v>4.1852818872618034</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>4.859679600639808</c:v>
+                    <c:v>3.1814070890235264</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>7.3570421967095108</c:v>
+                    <c:v>4.816314679629361</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>8.8986771454572722</c:v>
+                    <c:v>5.8255516577187869</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>15.778299207803659</c:v>
+                    <c:v>10.329321493917433</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>22.16730574830552</c:v>
+                    <c:v>14.511908077834248</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>30.846310812206699</c:v>
+                    <c:v>20.193650601010276</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>44.598174338056609</c:v>
+                    <c:v>29.196358537283061</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>51.498005143226635</c:v>
+                    <c:v>33.713358101151599</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>61.869942163004914</c:v>
+                    <c:v>40.503384743501407</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>79.166133845853551</c:v>
+                    <c:v>51.826400117947053</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>56.956035044061132</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>64.672378609070222</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>83.383393399954485</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>83.534335998916617</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>81.173144955866263</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>91.486573972950168</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>104.17903419158137</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>105.38321223014987</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>97.507405322232259</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>108.60141140634649</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>120.9177786092033</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>127.27753124039417</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>123.42865754440295</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>113.00593278738597</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>127.15277405141794</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>130.39184565500562</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>126.0002796394714</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>131.78641638942489</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>117.78051284460791</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>120.57637190760504</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>122.91710467956374</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>122.58890811061381</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>109.044894577766</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>114.06107189935396</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>111.87271652414698</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>108.69480012527737</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>107.12673052614201</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>112.92421610778725</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>100.53113418315407</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>95.205803980932885</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>102.83122357187429</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>92.794970337780768</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>103.33102061756303</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>93.7868274839809</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>91.983514277659722</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>87.577178734004235</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>84.653114922296638</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>81.277733559803139</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>76.854316464356543</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>65.854793716157275</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>69.627047557067115</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>61.043429473148734</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>59.083094919510266</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>59.215208005626302</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>58.245924029840488</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>47.424620910401764</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>41.035495420032909</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>45.660844656537655</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>45.977574260470789</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>36.646507986688192</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>32.537922720727785</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>29.729208774977003</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>32.424734338682136</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>32.61512860749361</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>28.566653984097403</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>23.437268247059482</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>16.801124291690559</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>17.313841457800695</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>16.449461556358163</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>12.395494081619194</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>10.238400194551598</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>11.341172217354101</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>12.929347803402502</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>10.386048521728128</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>9.1321457687986474</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>7.3535268788422732</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>5.8987311709904615</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>8.631923880515421</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>6.2783691272612385</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>4.5923217775716205</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>7.0844269137285378</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>4.268529568243645</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>2.8388797166486111</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>3.2645035530455591</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>3.4286290017018524</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>5.3691611244724884</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>2.3981830177363634</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>4.2342883866242431</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>2.3778665374847643</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>3.2848822587009554</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>3.2664837620690061</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>2.8284647469145243</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>2.380965406651987</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>3.0905217782003347</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>2.1869775031148748</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>1.0055499002899719</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>2.4657229160824352</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>4.55299762125762</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>4.5674872448417414</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>2.8207769360075967</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>גיליון1!$O$123:$O$142</c:f>
+                <c:f>גיליון1!$O$123:$O$232</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="20"/>
+                  <c:ptCount val="110"/>
                   <c:pt idx="0">
-                    <c:v>2.9714143655398599</c:v>
+                    <c:v>1.9452473215950841</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>4.5148515219886916</c:v>
+                    <c:v>2.9556641215713944</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.3103509034903951</c:v>
+                    <c:v>4.1310943824253865</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>5.3937105119907311</c:v>
+                    <c:v>3.5310123854109343</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>4.8119719731478785</c:v>
+                    <c:v>3.1501751155651658</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>4.6731426192402976</c:v>
+                    <c:v>3.0592899694275517</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>6.7349291446934236</c:v>
+                    <c:v>4.4090460865316858</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>2.2224634773968348</c:v>
+                    <c:v>1.4549438734922531</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>7.0166435905729099</c:v>
+                    <c:v>4.5934714826181553</c:v>
                   </c:pt>
                   <c:pt idx="9">
-                    <c:v>6.3931236843682839</c:v>
+                    <c:v>4.1852818872618034</c:v>
                   </c:pt>
                   <c:pt idx="10">
-                    <c:v>4.859679600639808</c:v>
+                    <c:v>3.1814070890235264</c:v>
                   </c:pt>
                   <c:pt idx="11">
-                    <c:v>7.3570421967095108</c:v>
+                    <c:v>4.816314679629361</c:v>
                   </c:pt>
                   <c:pt idx="12">
-                    <c:v>8.8986771454572722</c:v>
+                    <c:v>5.8255516577187869</c:v>
                   </c:pt>
                   <c:pt idx="13">
-                    <c:v>15.778299207803659</c:v>
+                    <c:v>10.329321493917433</c:v>
                   </c:pt>
                   <c:pt idx="14">
-                    <c:v>22.16730574830552</c:v>
+                    <c:v>14.511908077834248</c:v>
                   </c:pt>
                   <c:pt idx="15">
-                    <c:v>30.846310812206699</c:v>
+                    <c:v>20.193650601010276</c:v>
                   </c:pt>
                   <c:pt idx="16">
-                    <c:v>44.598174338056609</c:v>
+                    <c:v>29.196358537283061</c:v>
                   </c:pt>
                   <c:pt idx="17">
-                    <c:v>51.498005143226635</c:v>
+                    <c:v>33.713358101151599</c:v>
                   </c:pt>
                   <c:pt idx="18">
-                    <c:v>61.869942163004914</c:v>
+                    <c:v>40.503384743501407</c:v>
                   </c:pt>
                   <c:pt idx="19">
-                    <c:v>79.166133845853551</c:v>
+                    <c:v>51.826400117947053</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>56.956035044061132</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>64.672378609070222</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>83.383393399954485</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>83.534335998916617</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>81.173144955866263</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>91.486573972950168</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>104.17903419158137</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>105.38321223014987</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>97.507405322232259</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>108.60141140634649</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>120.9177786092033</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>127.27753124039417</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>123.42865754440295</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>113.00593278738597</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>127.15277405141794</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>130.39184565500562</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>126.0002796394714</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>131.78641638942489</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>117.78051284460791</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>120.57637190760504</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>122.91710467956374</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>122.58890811061381</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>109.044894577766</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>114.06107189935396</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>111.87271652414698</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>108.69480012527737</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>107.12673052614201</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>112.92421610778725</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>100.53113418315407</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>95.205803980932885</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>102.83122357187429</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>92.794970337780768</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>103.33102061756303</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>93.7868274839809</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>91.983514277659722</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>87.577178734004235</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>84.653114922296638</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>81.277733559803139</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>76.854316464356543</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>65.854793716157275</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>69.627047557067115</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>61.043429473148734</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>59.083094919510266</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>59.215208005626302</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>58.245924029840488</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>47.424620910401764</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>41.035495420032909</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>45.660844656537655</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>45.977574260470789</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>36.646507986688192</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>32.537922720727785</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>29.729208774977003</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>32.424734338682136</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>32.61512860749361</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>28.566653984097403</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>23.437268247059482</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>16.801124291690559</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>17.313841457800695</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>16.449461556358163</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>12.395494081619194</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>10.238400194551598</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>11.341172217354101</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>12.929347803402502</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>10.386048521728128</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>9.1321457687986474</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>7.3535268788422732</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>5.8987311709904615</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>8.631923880515421</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>6.2783691272612385</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>4.5923217775716205</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>7.0844269137285378</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>4.268529568243645</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>2.8388797166486111</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>3.2645035530455591</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>3.4286290017018524</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>5.3691611244724884</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>2.3981830177363634</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>4.2342883866242431</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>2.3778665374847643</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>3.2848822587009554</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>3.2664837620690061</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>2.8284647469145243</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>2.380965406651987</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>3.0905217782003347</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>2.1869775031148748</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>1.0055499002899719</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>2.4657229160824352</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>4.55299762125762</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>4.5674872448417414</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>2.8207769360075967</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1343,11 +2427,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="317132224"/>
-        <c:axId val="361585256"/>
+        <c:axId val="314753976"/>
+        <c:axId val="363375520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="317132224"/>
+        <c:axId val="314753976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1394,6 +2478,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1459,7 +2544,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361585256"/>
+        <c:crossAx val="363375520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1467,7 +2552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="361585256"/>
+        <c:axId val="363375520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1514,6 +2599,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1580,7 +2666,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317132224"/>
+        <c:crossAx val="314753976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1633,6 +2719,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2452,11 +3539,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="361582512"/>
-        <c:axId val="362323520"/>
+        <c:axId val="363508872"/>
+        <c:axId val="364096568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="361582512"/>
+        <c:axId val="363508872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2513,12 +3600,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="362323520"/>
+        <c:crossAx val="364096568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="362323520"/>
+        <c:axId val="364096568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2575,7 +3662,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361582512"/>
+        <c:crossAx val="363508872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3346,11 +4433,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="361580552"/>
-        <c:axId val="361582120"/>
+        <c:axId val="363376304"/>
+        <c:axId val="363381792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="361580552"/>
+        <c:axId val="363376304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3407,12 +4494,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361582120"/>
+        <c:crossAx val="363381792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="361582120"/>
+        <c:axId val="363381792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3469,7 +4556,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361580552"/>
+        <c:crossAx val="363376304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4235,11 +5322,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="361584080"/>
-        <c:axId val="361584864"/>
+        <c:axId val="363377088"/>
+        <c:axId val="363376696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="361584080"/>
+        <c:axId val="363377088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4296,12 +5383,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361584864"/>
+        <c:crossAx val="363376696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="361584864"/>
+        <c:axId val="363376696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4358,7 +5445,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361584080"/>
+        <c:crossAx val="363377088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5124,11 +6211,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="361584472"/>
-        <c:axId val="361579376"/>
+        <c:axId val="363375128"/>
+        <c:axId val="363375912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="361584472"/>
+        <c:axId val="363375128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5185,12 +6272,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361579376"/>
+        <c:crossAx val="363375912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="361579376"/>
+        <c:axId val="363375912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5247,7 +6334,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361584472"/>
+        <c:crossAx val="363375128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6657,11 +7744,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="361726232"/>
-        <c:axId val="361720744"/>
+        <c:axId val="363379048"/>
+        <c:axId val="363379440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="361726232"/>
+        <c:axId val="363379048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6718,12 +7805,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361720744"/>
+        <c:crossAx val="363379440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="361720744"/>
+        <c:axId val="363379440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6780,7 +7867,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361726232"/>
+        <c:crossAx val="363379048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8217,11 +9304,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="361723488"/>
-        <c:axId val="361725448"/>
+        <c:axId val="363510048"/>
+        <c:axId val="363510440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="361723488"/>
+        <c:axId val="363510048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8278,12 +9365,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361725448"/>
+        <c:crossAx val="363510440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="361725448"/>
+        <c:axId val="363510440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8340,7 +9427,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361723488"/>
+        <c:crossAx val="363510048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9777,11 +10864,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="361723096"/>
-        <c:axId val="361725840"/>
+        <c:axId val="363512008"/>
+        <c:axId val="363509264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="361723096"/>
+        <c:axId val="363512008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9838,12 +10925,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361725840"/>
+        <c:crossAx val="363509264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="361725840"/>
+        <c:axId val="363509264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9900,7 +10987,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361723096"/>
+        <c:crossAx val="363512008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11973,11 +13060,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="361727800"/>
-        <c:axId val="361720352"/>
+        <c:axId val="363513968"/>
+        <c:axId val="363514360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="361727800"/>
+        <c:axId val="363513968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12034,12 +13121,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361720352"/>
+        <c:crossAx val="363514360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="361720352"/>
+        <c:axId val="363514360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12096,7 +13183,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361727800"/>
+        <c:crossAx val="363513968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -13579,11 +14666,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="361578984"/>
-        <c:axId val="361581336"/>
+        <c:axId val="363507696"/>
+        <c:axId val="363508088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="361578984"/>
+        <c:axId val="363507696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13640,12 +14727,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361581336"/>
+        <c:crossAx val="363508088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="361581336"/>
+        <c:axId val="363508088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13702,7 +14789,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="361578984"/>
+        <c:crossAx val="363507696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -19363,7 +20450,7 @@
         <xdr:cNvPr id="2" name="תרשים 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37E21945-C9E5-4289-A18F-DECB2D88BDAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19383,16 +20470,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>595704</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>38548</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>24204</xdr:colOff>
       <xdr:row>136</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>118782</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19413,16 +20500,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>573742</xdr:colOff>
       <xdr:row>137</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>2241</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>17482</xdr:colOff>
       <xdr:row>156</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>40341</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22820,10 +23907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U244"/>
+  <dimension ref="A1:V244"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S109" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="BF138" sqref="BF138"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22888,7 +23975,7 @@
         <v>3</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -22932,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <f>N3/SQRT(3)</f>
+        <f>N3/SQRT(7)</f>
         <v>0</v>
       </c>
     </row>
@@ -22977,7 +24064,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <f t="shared" ref="O4:O67" si="3">N4/SQRT(3)</f>
+        <f t="shared" ref="O4:O67" si="3">N4/SQRT(7)</f>
         <v>0</v>
       </c>
     </row>
@@ -23248,7 +24335,7 @@
       </c>
       <c r="O10">
         <f t="shared" si="3"/>
-        <v>0.29880715233359845</v>
+        <v>0.19561519910898789</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -23293,7 +24380,7 @@
       </c>
       <c r="O11">
         <f t="shared" si="3"/>
-        <v>0.53452248382484879</v>
+        <v>0.34992710611188255</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -23338,7 +24425,7 @@
       </c>
       <c r="O12">
         <f t="shared" si="3"/>
-        <v>2.2253945610567474</v>
+        <v>1.456862718169367</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -23383,7 +24470,7 @@
       </c>
       <c r="O13">
         <f t="shared" si="3"/>
-        <v>5.931654390599963</v>
+        <v>3.8831793201773546</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -23428,7 +24515,7 @@
       </c>
       <c r="O14">
         <f t="shared" si="3"/>
-        <v>5.0023803857573164</v>
+        <v>3.2748266818136136</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -23473,7 +24560,7 @@
       </c>
       <c r="O15">
         <f t="shared" si="3"/>
-        <v>10.331413032015284</v>
+        <v>6.7634974650090367</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -23518,7 +24605,7 @@
       </c>
       <c r="O16">
         <f t="shared" si="3"/>
-        <v>19.673374562252068</v>
+        <v>12.879246872391256</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -23563,7 +24650,7 @@
       </c>
       <c r="O17">
         <f t="shared" si="3"/>
-        <v>18.76610419524166</v>
+        <v>12.285298996303322</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.3">
@@ -23608,7 +24695,7 @@
       </c>
       <c r="O18">
         <f t="shared" si="3"/>
-        <v>23.177241505613299</v>
+        <v>15.173066228535028</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
@@ -23653,7 +24740,7 @@
       </c>
       <c r="O19">
         <f t="shared" si="3"/>
-        <v>25.85663311783799</v>
+        <v>16.927139782742085</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
@@ -23698,7 +24785,7 @@
       </c>
       <c r="O20">
         <f t="shared" si="3"/>
-        <v>48.093101673435754</v>
+        <v>31.484325546246669</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
@@ -23743,7 +24830,7 @@
       </c>
       <c r="O21">
         <f t="shared" si="3"/>
-        <v>43.866613294221402</v>
+        <v>28.717439414589386</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.3">
@@ -23788,7 +24875,7 @@
       </c>
       <c r="O22">
         <f t="shared" si="3"/>
-        <v>53.607035785559773</v>
+        <v>35.094042752790592</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.3">
@@ -23833,7 +24920,7 @@
       </c>
       <c r="O23">
         <f t="shared" si="3"/>
-        <v>83.886970439537322</v>
+        <v>54.916913122814677</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.3">
@@ -23878,7 +24965,7 @@
       </c>
       <c r="O24">
         <f t="shared" si="3"/>
-        <v>79.77822683032305</v>
+        <v>52.227109037044606</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
@@ -23923,7 +25010,7 @@
       </c>
       <c r="O25">
         <f t="shared" si="3"/>
-        <v>62.064290783639755</v>
+        <v>40.63061578139704</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
@@ -23968,7 +25055,7 @@
       </c>
       <c r="O26">
         <f t="shared" si="3"/>
-        <v>102.40256693211219</v>
+        <v>67.038216332026551</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
@@ -24013,7 +25100,7 @@
       </c>
       <c r="O27">
         <f t="shared" si="3"/>
-        <v>104.53089654897892</v>
+        <v>68.431535128184862</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
@@ -24058,7 +25145,7 @@
       </c>
       <c r="O28">
         <f t="shared" si="3"/>
-        <v>113.81582344589292</v>
+        <v>74.509946603504829</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
@@ -24103,7 +25190,7 @@
       </c>
       <c r="O29">
         <f t="shared" si="3"/>
-        <v>116.14417866641118</v>
+        <v>76.034212895329205</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
@@ -24148,7 +25235,7 @@
       </c>
       <c r="O30">
         <f t="shared" si="3"/>
-        <v>153.89382548955473</v>
+        <v>100.74715775602985</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
@@ -24193,7 +25280,7 @@
       </c>
       <c r="O31">
         <f t="shared" si="3"/>
-        <v>153.77062385873569</v>
+        <v>100.66650335617695</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
@@ -24238,7 +25325,7 @@
       </c>
       <c r="O32">
         <f t="shared" si="3"/>
-        <v>154.36827872393499</v>
+        <v>101.05776030749615</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
@@ -24283,7 +25370,7 @@
       </c>
       <c r="O33">
         <f t="shared" si="3"/>
-        <v>165.70166464663737</v>
+        <v>108.47720300334338</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
@@ -24328,7 +25415,7 @@
       </c>
       <c r="O34">
         <f t="shared" si="3"/>
-        <v>173.63316558329572</v>
+        <v>113.66958920575054</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
@@ -24373,7 +25460,7 @@
       </c>
       <c r="O35">
         <f t="shared" si="3"/>
-        <v>168.99640740052942</v>
+        <v>110.63411844121732</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
@@ -24418,7 +25505,7 @@
       </c>
       <c r="O36">
         <f t="shared" si="3"/>
-        <v>191.85570905041658</v>
+        <v>125.59904417613689</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
@@ -24463,7 +25550,7 @@
       </c>
       <c r="O37">
         <f t="shared" si="3"/>
-        <v>189.69499328182198</v>
+        <v>124.18452366686981</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
@@ -24508,7 +25595,7 @@
       </c>
       <c r="O38">
         <f t="shared" si="3"/>
-        <v>191.71467825167394</v>
+        <v>125.50671784605713</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
@@ -24553,7 +25640,7 @@
       </c>
       <c r="O39">
         <f t="shared" si="3"/>
-        <v>192.66081717928657</v>
+        <v>126.12611116801844</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
@@ -24598,7 +25685,7 @@
       </c>
       <c r="O40">
         <f t="shared" si="3"/>
-        <v>181.11846623004462</v>
+        <v>118.56986875049749</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
@@ -24643,7 +25730,7 @@
       </c>
       <c r="O41">
         <f t="shared" si="3"/>
-        <v>177.90819930782388</v>
+        <v>116.46825572591329</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
@@ -24688,7 +25775,7 @@
       </c>
       <c r="O42">
         <f t="shared" si="3"/>
-        <v>189.21158476563693</v>
+        <v>123.86805850729777</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
@@ -24733,7 +25820,7 @@
       </c>
       <c r="O43">
         <f t="shared" si="3"/>
-        <v>181.83337152459117</v>
+        <v>119.03788412578096</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
@@ -24778,7 +25865,7 @@
       </c>
       <c r="O44">
         <f t="shared" si="3"/>
-        <v>186.90002420443676</v>
+        <v>122.3547869008443</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.3">
@@ -24823,7 +25910,7 @@
       </c>
       <c r="O45">
         <f t="shared" si="3"/>
-        <v>212.47946679508544</v>
+        <v>139.10046288747643</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.3">
@@ -24868,7 +25955,7 @@
       </c>
       <c r="O46">
         <f t="shared" si="3"/>
-        <v>191.8051932113861</v>
+        <v>125.56597379668668</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.3">
@@ -24913,7 +26000,7 @@
       </c>
       <c r="O47">
         <f t="shared" si="3"/>
-        <v>175.8467947905086</v>
+        <v>115.11874969183883</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
@@ -24958,7 +26045,7 @@
       </c>
       <c r="O48">
         <f t="shared" si="3"/>
-        <v>198.23901819100431</v>
+        <v>129.77790093628641</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.3">
@@ -25003,7 +26090,7 @@
       </c>
       <c r="O49">
         <f t="shared" si="3"/>
-        <v>189.47570204822219</v>
+        <v>124.04096385583962</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.3">
@@ -25048,7 +26135,7 @@
       </c>
       <c r="O50">
         <f t="shared" si="3"/>
-        <v>176.31841799372384</v>
+        <v>115.42749955301475</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
@@ -25093,7 +26180,7 @@
       </c>
       <c r="O51">
         <f t="shared" si="3"/>
-        <v>163.15082125502917</v>
+        <v>106.8072840136259</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
@@ -25138,7 +26225,7 @@
       </c>
       <c r="O52">
         <f t="shared" si="3"/>
-        <v>166.89111077928285</v>
+        <v>109.25587828018915</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.3">
@@ -25183,7 +26270,7 @@
       </c>
       <c r="O53">
         <f t="shared" si="3"/>
-        <v>140.81522847841626</v>
+        <v>92.185206214977683</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.3">
@@ -25228,7 +26315,7 @@
       </c>
       <c r="O54">
         <f t="shared" si="3"/>
-        <v>149.84746212319351</v>
+        <v>98.098191125223181</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.3">
@@ -25273,7 +26360,7 @@
       </c>
       <c r="O55">
         <f t="shared" si="3"/>
-        <v>145.99967384177529</v>
+        <v>95.579222402685616</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.3">
@@ -25318,7 +26405,7 @@
       </c>
       <c r="O56">
         <f t="shared" si="3"/>
-        <v>141.08472209819109</v>
+        <v>92.361631202395643</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.3">
@@ -25363,7 +26450,7 @@
       </c>
       <c r="O57">
         <f t="shared" si="3"/>
-        <v>116.7922198566652</v>
+        <v>76.458455439298959</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
@@ -25408,7 +26495,7 @@
       </c>
       <c r="O58">
         <f t="shared" si="3"/>
-        <v>121.10480997879482</v>
+        <v>79.281708393010078</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.3">
@@ -25453,7 +26540,7 @@
       </c>
       <c r="O59">
         <f t="shared" si="3"/>
-        <v>115.31406390086741</v>
+        <v>75.490775216957076</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.3">
@@ -25498,7 +26585,7 @@
       </c>
       <c r="O60">
         <f t="shared" si="3"/>
-        <v>127.3812939470276</v>
+        <v>83.390631661953435</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.3">
@@ -25543,7 +26630,7 @@
       </c>
       <c r="O61">
         <f t="shared" si="3"/>
-        <v>124.3261599488179</v>
+        <v>81.390576975520716</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.3">
@@ -25588,7 +26675,7 @@
       </c>
       <c r="O62">
         <f t="shared" si="3"/>
-        <v>107.17931125877215</v>
+        <v>70.165329539507994</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.3">
@@ -25633,7 +26720,7 @@
       </c>
       <c r="O63">
         <f t="shared" si="3"/>
-        <v>93.356459719874621</v>
+        <v>61.116149039917325</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.3">
@@ -25678,7 +26765,7 @@
       </c>
       <c r="O64">
         <f t="shared" si="3"/>
-        <v>88.745455953423061</v>
+        <v>58.097538498561505</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
@@ -25723,7 +26810,7 @@
       </c>
       <c r="O65">
         <f t="shared" si="3"/>
-        <v>81.647762632280021</v>
+        <v>53.451007512315726</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
@@ -25768,7 +26855,7 @@
       </c>
       <c r="O66">
         <f t="shared" si="3"/>
-        <v>81.702676706166628</v>
+        <v>53.486957212359115</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.3">
@@ -25813,7 +26900,7 @@
       </c>
       <c r="O67">
         <f t="shared" si="3"/>
-        <v>74.848895401716803</v>
+        <v>49.000104123171333</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
@@ -25857,8 +26944,8 @@
         <v>110.59118732650316</v>
       </c>
       <c r="O68">
-        <f t="shared" ref="O68:O112" si="7">N68/SQRT(3)</f>
-        <v>63.849851772956931</v>
+        <f t="shared" ref="O68:O112" si="7">N68/SQRT(7)</f>
+        <v>41.799539837326492</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
@@ -25903,7 +26990,7 @@
       </c>
       <c r="O69">
         <f t="shared" si="7"/>
-        <v>71.854971329490525</v>
+        <v>47.040120739467419</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
@@ -25948,7 +27035,7 @@
       </c>
       <c r="O70">
         <f t="shared" si="7"/>
-        <v>56.167055248055291</v>
+        <v>36.769968890997141</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
@@ -25993,7 +27080,7 @@
       </c>
       <c r="O71">
         <f t="shared" si="7"/>
-        <v>53.657423043033369</v>
+        <v>35.127028955852587</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
@@ -26038,7 +27125,7 @@
       </c>
       <c r="O72">
         <f t="shared" si="7"/>
-        <v>47.805595906755521</v>
+        <v>31.296108840739748</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
@@ -26083,7 +27170,7 @@
       </c>
       <c r="O73">
         <f t="shared" si="7"/>
-        <v>44.385151421017667</v>
+        <v>29.056902302698603</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.3">
@@ -26128,7 +27215,7 @@
       </c>
       <c r="O74">
         <f t="shared" si="7"/>
-        <v>45.612694035135185</v>
+        <v>29.860517580981103</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
@@ -26173,7 +27260,7 @@
       </c>
       <c r="O75">
         <f t="shared" si="7"/>
-        <v>42.734437434663199</v>
+        <v>27.976256332242649</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
@@ -26218,7 +27305,7 @@
       </c>
       <c r="O76">
         <f t="shared" si="7"/>
-        <v>31.364124941297714</v>
+        <v>20.532639521364164</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -26263,7 +27350,7 @@
       </c>
       <c r="O77">
         <f t="shared" si="7"/>
-        <v>28.332948176653847</v>
+        <v>18.548268525825328</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
@@ -26308,7 +27395,7 @@
       </c>
       <c r="O78">
         <f t="shared" si="7"/>
-        <v>24.611142462984798</v>
+        <v>16.111774753709962</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
@@ -26353,7 +27440,7 @@
       </c>
       <c r="O79">
         <f t="shared" si="7"/>
-        <v>25.972512942944675</v>
+        <v>17.003000935609176</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
@@ -26398,7 +27485,7 @@
       </c>
       <c r="O80">
         <f t="shared" si="7"/>
-        <v>28.42659720352453</v>
+        <v>18.60957620502445</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
@@ -26443,7 +27530,7 @@
       </c>
       <c r="O81">
         <f t="shared" si="7"/>
-        <v>19.559433237479777</v>
+        <v>12.804654765883749</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
@@ -26488,7 +27575,7 @@
       </c>
       <c r="O82">
         <f t="shared" si="7"/>
-        <v>20.433253709158929</v>
+        <v>13.37670454520828</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
@@ -26533,7 +27620,7 @@
       </c>
       <c r="O83">
         <f t="shared" si="7"/>
-        <v>15.447106371035815</v>
+        <v>10.112504887615176</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
@@ -26578,7 +27665,7 @@
       </c>
       <c r="O84">
         <f t="shared" si="7"/>
-        <v>12.469963913339928</v>
+        <v>8.1635076494639947</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
@@ -26623,7 +27710,7 @@
       </c>
       <c r="O85">
         <f t="shared" si="7"/>
-        <v>12.920775076264913</v>
+        <v>8.4586328320689681</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
@@ -26668,7 +27755,7 @@
       </c>
       <c r="O86">
         <f t="shared" si="7"/>
-        <v>9.717130185791433</v>
+        <v>6.3613549448756492</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
@@ -26713,7 +27800,7 @@
       </c>
       <c r="O87">
         <f t="shared" si="7"/>
-        <v>7.2139910359430495</v>
+        <v>4.7226657121345594</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
@@ -26758,7 +27845,7 @@
       </c>
       <c r="O88">
         <f t="shared" si="7"/>
-        <v>4.6058968414724308</v>
+        <v>3.0152672741722046</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
@@ -26803,7 +27890,7 @@
       </c>
       <c r="O89">
         <f t="shared" si="7"/>
-        <v>5.2007325491337326</v>
+        <v>3.4046786536608526</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
@@ -26848,7 +27935,7 @@
       </c>
       <c r="O90">
         <f t="shared" si="7"/>
-        <v>4.0089186286863656</v>
+        <v>2.6244532958391193</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
@@ -26893,7 +27980,7 @@
       </c>
       <c r="O91">
         <f t="shared" si="7"/>
-        <v>2.9990077724220088</v>
+        <v>1.9633114466978216</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
@@ -26938,7 +28025,7 @@
       </c>
       <c r="O92">
         <f t="shared" si="7"/>
-        <v>3.7161167647860331</v>
+        <v>2.4327694808466287</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
@@ -26983,7 +28070,7 @@
       </c>
       <c r="O93">
         <f t="shared" si="7"/>
-        <v>2.6265584942676461</v>
+        <v>1.7194861596015316</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
@@ -27028,7 +28115,7 @@
       </c>
       <c r="O94">
         <f t="shared" si="7"/>
-        <v>1.2724180205607036</v>
+        <v>0.83299312783504276</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
@@ -27073,7 +28160,7 @@
       </c>
       <c r="O95">
         <f t="shared" si="7"/>
-        <v>2.1588687513867737</v>
+        <v>1.4133113526720984</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
@@ -27118,7 +28205,7 @@
       </c>
       <c r="O96">
         <f t="shared" si="7"/>
-        <v>1.2511899098363088</v>
+        <v>0.81909606722712247</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.3">
@@ -27163,7 +28250,7 @@
       </c>
       <c r="O97">
         <f t="shared" si="7"/>
-        <v>0.81649658092772615</v>
+        <v>0.53452248382484879</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.3">
@@ -27208,7 +28295,7 @@
       </c>
       <c r="O98">
         <f t="shared" si="7"/>
-        <v>1.0662573619463369</v>
+        <v>0.69802929591757357</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.3">
@@ -27253,7 +28340,7 @@
       </c>
       <c r="O99">
         <f t="shared" si="7"/>
-        <v>0.57217213527132937</v>
+        <v>0.37457458863219695</v>
       </c>
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.3">
@@ -27298,7 +28385,7 @@
       </c>
       <c r="O100">
         <f t="shared" si="7"/>
-        <v>0.89642145700079523</v>
+        <v>0.58684559732696362</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.3">
@@ -27343,7 +28430,7 @@
       </c>
       <c r="O101">
         <f t="shared" si="7"/>
-        <v>0.43643578047198478</v>
+        <v>0.2857142857142857</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.3">
@@ -27388,7 +28475,7 @@
       </c>
       <c r="O102">
         <f t="shared" si="7"/>
-        <v>0.30860669992418382</v>
+        <v>0.20203050891044214</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.3">
@@ -27478,7 +28565,7 @@
       </c>
       <c r="O104">
         <f t="shared" si="7"/>
-        <v>0.2672612419124244</v>
+        <v>0.17496355305594127</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.3">
@@ -27841,7 +28928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A121" s="3" t="s">
         <v>5</v>
       </c>
@@ -27862,7 +28949,7 @@
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B122">
         <v>0</v>
       </c>
@@ -27897,28 +28984,29 @@
         <v>3</v>
       </c>
       <c r="O122" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P122" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q122" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="P122" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q122" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="R122" s="1" t="s">
         <v>9</v>
       </c>
       <c r="S122" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T122" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="T122" s="1" t="s">
+      <c r="U122" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="U122" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="V122" s="1"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>0</v>
       </c>
@@ -27959,11 +29047,11 @@
         <v>5.1466406514550771</v>
       </c>
       <c r="O123">
-        <f>N123/SQRT(3)</f>
-        <v>2.9714143655398599</v>
+        <f>N123/SQRT(7)</f>
+        <v>1.9452473215950841</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1</v>
       </c>
@@ -28004,11 +29092,11 @@
         <v>7.819952224714088</v>
       </c>
       <c r="O124">
-        <f t="shared" ref="O124:O187" si="11">N124/SQRT(3)</f>
-        <v>4.5148515219886916</v>
+        <f t="shared" ref="O124:O187" si="11">N124/SQRT(7)</f>
+        <v>2.9556641215713944</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2</v>
       </c>
@@ -28050,10 +29138,10 @@
       </c>
       <c r="O125">
         <f t="shared" si="11"/>
-        <v>6.3103509034903951</v>
+        <v>4.1310943824253865</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>3</v>
       </c>
@@ -28095,10 +29183,10 @@
       </c>
       <c r="O126">
         <f t="shared" si="11"/>
-        <v>5.3937105119907311</v>
+        <v>3.5310123854109343</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>4</v>
       </c>
@@ -28140,10 +29228,10 @@
       </c>
       <c r="O127">
         <f t="shared" si="11"/>
-        <v>4.8119719731478785</v>
+        <v>3.1501751155651658</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>5</v>
       </c>
@@ -28185,7 +29273,7 @@
       </c>
       <c r="O128">
         <f t="shared" si="11"/>
-        <v>4.6731426192402976</v>
+        <v>3.0592899694275517</v>
       </c>
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.3">
@@ -28230,7 +29318,7 @@
       </c>
       <c r="O129">
         <f t="shared" si="11"/>
-        <v>6.7349291446934236</v>
+        <v>4.4090460865316858</v>
       </c>
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
@@ -28275,7 +29363,7 @@
       </c>
       <c r="O130">
         <f t="shared" si="11"/>
-        <v>2.2224634773968348</v>
+        <v>1.4549438734922531</v>
       </c>
       <c r="P130">
         <f>A130</f>
@@ -28344,7 +29432,7 @@
       </c>
       <c r="O131">
         <f t="shared" si="11"/>
-        <v>7.0166435905729099</v>
+        <v>4.5934714826181553</v>
       </c>
       <c r="P131">
         <f t="shared" ref="P131:P194" si="12">A131</f>
@@ -28413,7 +29501,7 @@
       </c>
       <c r="O132">
         <f t="shared" si="11"/>
-        <v>6.3931236843682839</v>
+        <v>4.1852818872618034</v>
       </c>
       <c r="P132">
         <f t="shared" si="12"/>
@@ -28482,7 +29570,7 @@
       </c>
       <c r="O133">
         <f t="shared" si="11"/>
-        <v>4.859679600639808</v>
+        <v>3.1814070890235264</v>
       </c>
       <c r="P133">
         <f t="shared" si="12"/>
@@ -28551,7 +29639,7 @@
       </c>
       <c r="O134">
         <f t="shared" si="11"/>
-        <v>7.3570421967095108</v>
+        <v>4.816314679629361</v>
       </c>
       <c r="P134">
         <f t="shared" si="12"/>
@@ -28620,7 +29708,7 @@
       </c>
       <c r="O135">
         <f t="shared" si="11"/>
-        <v>8.8986771454572722</v>
+        <v>5.8255516577187869</v>
       </c>
       <c r="P135">
         <f t="shared" si="12"/>
@@ -28689,7 +29777,7 @@
       </c>
       <c r="O136">
         <f t="shared" si="11"/>
-        <v>15.778299207803659</v>
+        <v>10.329321493917433</v>
       </c>
       <c r="P136">
         <f t="shared" si="12"/>
@@ -28758,7 +29846,7 @@
       </c>
       <c r="O137">
         <f t="shared" si="11"/>
-        <v>22.16730574830552</v>
+        <v>14.511908077834248</v>
       </c>
       <c r="P137">
         <f t="shared" si="12"/>
@@ -28827,7 +29915,7 @@
       </c>
       <c r="O138">
         <f t="shared" si="11"/>
-        <v>30.846310812206699</v>
+        <v>20.193650601010276</v>
       </c>
       <c r="P138">
         <f t="shared" si="12"/>
@@ -28896,7 +29984,7 @@
       </c>
       <c r="O139">
         <f t="shared" si="11"/>
-        <v>44.598174338056609</v>
+        <v>29.196358537283061</v>
       </c>
       <c r="P139">
         <f t="shared" si="12"/>
@@ -28965,7 +30053,7 @@
       </c>
       <c r="O140">
         <f t="shared" si="11"/>
-        <v>51.498005143226635</v>
+        <v>33.713358101151599</v>
       </c>
       <c r="P140">
         <f t="shared" si="12"/>
@@ -29034,7 +30122,7 @@
       </c>
       <c r="O141">
         <f t="shared" si="11"/>
-        <v>61.869942163004914</v>
+        <v>40.503384743501407</v>
       </c>
       <c r="P141">
         <f t="shared" si="12"/>
@@ -29103,7 +30191,7 @@
       </c>
       <c r="O142">
         <f t="shared" si="11"/>
-        <v>79.166133845853551</v>
+        <v>51.826400117947053</v>
       </c>
       <c r="P142">
         <f t="shared" si="12"/>
@@ -29172,7 +30260,7 @@
       </c>
       <c r="O143">
         <f t="shared" si="11"/>
-        <v>87.001780624655879</v>
+        <v>56.956035044061132</v>
       </c>
       <c r="P143">
         <f t="shared" si="12"/>
@@ -29241,7 +30329,7 @@
       </c>
       <c r="O144">
         <f t="shared" si="11"/>
-        <v>98.788690116302405</v>
+        <v>64.672378609070222</v>
       </c>
       <c r="P144">
         <f t="shared" si="12"/>
@@ -29310,7 +30398,7 @@
       </c>
       <c r="O145">
         <f t="shared" si="11"/>
-        <v>127.37023731919088</v>
+        <v>83.383393399954485</v>
       </c>
       <c r="P145">
         <f t="shared" si="12"/>
@@ -29379,7 +30467,7 @@
       </c>
       <c r="O146">
         <f t="shared" si="11"/>
-        <v>127.60080594763667</v>
+        <v>83.534335998916617</v>
       </c>
       <c r="P146">
         <f t="shared" si="12"/>
@@ -29448,7 +30536,7 @@
       </c>
       <c r="O147">
         <f t="shared" si="11"/>
-        <v>123.99402705262668</v>
+        <v>81.173144955866263</v>
       </c>
       <c r="P147">
         <f t="shared" si="12"/>
@@ -29517,7 +30605,7 @@
       </c>
       <c r="O148">
         <f t="shared" si="11"/>
-        <v>139.74805010107366</v>
+        <v>91.486573972950168</v>
       </c>
       <c r="P148">
         <f t="shared" si="12"/>
@@ -29586,7 +30674,7 @@
       </c>
       <c r="O149">
         <f t="shared" si="11"/>
-        <v>159.13610333677141</v>
+        <v>104.17903419158137</v>
       </c>
       <c r="P149">
         <f t="shared" si="12"/>
@@ -29655,7 +30743,7 @@
       </c>
       <c r="O150">
         <f t="shared" si="11"/>
-        <v>160.97551567408595</v>
+        <v>105.38321223014987</v>
       </c>
       <c r="P150">
         <f t="shared" si="12"/>
@@ -29724,7 +30812,7 @@
       </c>
       <c r="O151">
         <f t="shared" si="11"/>
-        <v>148.9450219026231</v>
+        <v>97.507405322232259</v>
       </c>
       <c r="P151">
         <f t="shared" si="12"/>
@@ -29793,7 +30881,7 @@
       </c>
       <c r="O152">
         <f t="shared" si="11"/>
-        <v>165.8913961162078</v>
+        <v>108.60141140634649</v>
       </c>
       <c r="P152">
         <f t="shared" si="12"/>
@@ -29862,7 +30950,7 @@
       </c>
       <c r="O153">
         <f t="shared" si="11"/>
-        <v>184.70495778086209</v>
+        <v>120.9177786092033</v>
       </c>
       <c r="P153">
         <f t="shared" si="12"/>
@@ -29931,7 +31019,7 @@
       </c>
       <c r="O154">
         <f t="shared" si="11"/>
-        <v>194.41964039207099</v>
+        <v>127.27753124039417</v>
       </c>
       <c r="P154">
         <f t="shared" si="12"/>
@@ -30000,7 +31088,7 @@
       </c>
       <c r="O155">
         <f t="shared" si="11"/>
-        <v>188.54038870800295</v>
+        <v>123.42865754440295</v>
       </c>
       <c r="P155">
         <f t="shared" si="12"/>
@@ -30069,7 +31157,7 @@
       </c>
       <c r="O156">
         <f t="shared" si="11"/>
-        <v>172.6194136590961</v>
+        <v>113.00593278738597</v>
       </c>
       <c r="P156">
         <f t="shared" si="12"/>
@@ -30138,7 +31226,7 @@
       </c>
       <c r="O157">
         <f t="shared" si="11"/>
-        <v>194.22907063807983</v>
+        <v>127.15277405141794</v>
       </c>
       <c r="P157">
         <f t="shared" si="12"/>
@@ -30207,7 +31295,7 @@
       </c>
       <c r="O158">
         <f t="shared" si="11"/>
-        <v>199.17683423968737</v>
+        <v>130.39184565500562</v>
       </c>
       <c r="P158">
         <f t="shared" si="12"/>
@@ -30276,7 +31364,7 @@
       </c>
       <c r="O159">
         <f t="shared" si="11"/>
-        <v>192.46860634449365</v>
+        <v>126.0002796394714</v>
       </c>
       <c r="P159">
         <f t="shared" si="12"/>
@@ -30345,7 +31433,7 @@
       </c>
       <c r="O160">
         <f t="shared" si="11"/>
-        <v>201.30707622383616</v>
+        <v>131.78641638942489</v>
       </c>
       <c r="P160">
         <f t="shared" si="12"/>
@@ -30414,7 +31502,7 @@
       </c>
       <c r="O161">
         <f t="shared" si="11"/>
-        <v>179.91270516704478</v>
+        <v>117.78051284460791</v>
       </c>
       <c r="P161">
         <f t="shared" si="12"/>
@@ -30483,7 +31571,7 @@
       </c>
       <c r="O162">
         <f t="shared" si="11"/>
-        <v>184.18345042991567</v>
+        <v>120.57637190760504</v>
       </c>
       <c r="P162">
         <f t="shared" si="12"/>
@@ -30552,7 +31640,7 @@
       </c>
       <c r="O163">
         <f t="shared" si="11"/>
-        <v>187.75897879963719</v>
+        <v>122.91710467956374</v>
       </c>
       <c r="P163">
         <f t="shared" si="12"/>
@@ -30621,7 +31709,7 @@
       </c>
       <c r="O164">
         <f t="shared" si="11"/>
-        <v>187.25765025962457</v>
+        <v>122.58890811061381</v>
       </c>
       <c r="P164">
         <f t="shared" si="12"/>
@@ -30690,7 +31778,7 @@
       </c>
       <c r="O165">
         <f t="shared" si="11"/>
-        <v>166.56882785036413</v>
+        <v>109.044894577766</v>
       </c>
       <c r="P165">
         <f t="shared" si="12"/>
@@ -30759,7 +31847,7 @@
       </c>
       <c r="O166">
         <f t="shared" si="11"/>
-        <v>174.23116527553003</v>
+        <v>114.06107189935396</v>
       </c>
       <c r="P166">
         <f t="shared" si="12"/>
@@ -30828,7 +31916,7 @@
       </c>
       <c r="O167">
         <f t="shared" si="11"/>
-        <v>170.88839722408019</v>
+        <v>111.87271652414698</v>
       </c>
       <c r="P167">
         <f t="shared" si="12"/>
@@ -30897,7 +31985,7 @@
       </c>
       <c r="O168">
         <f t="shared" si="11"/>
-        <v>166.03404974072637</v>
+        <v>108.69480012527737</v>
       </c>
       <c r="P168">
         <f t="shared" si="12"/>
@@ -30966,7 +32054,7 @@
       </c>
       <c r="O169">
         <f t="shared" si="11"/>
-        <v>163.63878386306075</v>
+        <v>107.12673052614201</v>
       </c>
       <c r="P169">
         <f t="shared" si="12"/>
@@ -31035,7 +32123,7 @@
       </c>
       <c r="O170">
         <f t="shared" si="11"/>
-        <v>172.49458936916221</v>
+        <v>112.92421610778725</v>
       </c>
       <c r="P170">
         <f t="shared" si="12"/>
@@ -31104,7 +32192,7 @@
       </c>
       <c r="O171">
         <f t="shared" si="11"/>
-        <v>153.56384403135536</v>
+        <v>100.53113418315407</v>
       </c>
       <c r="P171">
         <f t="shared" si="12"/>
@@ -31173,7 +32261,7 @@
       </c>
       <c r="O172">
         <f t="shared" si="11"/>
-        <v>145.42926778058435</v>
+        <v>95.205803980932885</v>
       </c>
       <c r="P172">
         <f t="shared" si="12"/>
@@ -31242,7 +32330,7 @@
       </c>
       <c r="O173">
         <f t="shared" si="11"/>
-        <v>157.0772886076804</v>
+        <v>102.83122357187429</v>
       </c>
       <c r="P173">
         <f t="shared" si="12"/>
@@ -31311,7 +32399,7 @@
       </c>
       <c r="O174">
         <f t="shared" si="11"/>
-        <v>141.74665856135411</v>
+        <v>92.794970337780768</v>
       </c>
       <c r="P174">
         <f t="shared" si="12"/>
@@ -31380,7 +32468,7 @@
       </c>
       <c r="O175">
         <f t="shared" si="11"/>
-        <v>157.84074120567504</v>
+        <v>103.33102061756303</v>
       </c>
       <c r="P175">
         <f t="shared" si="12"/>
@@ -31449,7 +32537,7 @@
       </c>
       <c r="O176">
         <f t="shared" si="11"/>
-        <v>143.26174537836908</v>
+        <v>93.7868274839809</v>
       </c>
       <c r="P176">
         <f t="shared" si="12"/>
@@ -31518,7 +32606,7 @@
       </c>
       <c r="O177">
         <f t="shared" si="11"/>
-        <v>140.50713895514232</v>
+        <v>91.983514277659722</v>
       </c>
       <c r="P177">
         <f t="shared" si="12"/>
@@ -31587,7 +32675,7 @@
       </c>
       <c r="O178">
         <f t="shared" si="11"/>
-        <v>133.77635023308378</v>
+        <v>87.577178734004235</v>
       </c>
       <c r="P178">
         <f t="shared" si="12"/>
@@ -31656,7 +32744,7 @@
       </c>
       <c r="O179">
         <f t="shared" si="11"/>
-        <v>129.30976898174006</v>
+        <v>84.653114922296638</v>
       </c>
       <c r="P179">
         <f t="shared" si="12"/>
@@ -31725,7 +32813,7 @@
       </c>
       <c r="O180">
         <f t="shared" si="11"/>
-        <v>124.1537887840835</v>
+        <v>81.277733559803139</v>
       </c>
       <c r="P180">
         <f t="shared" si="12"/>
@@ -31794,7 +32882,7 @@
       </c>
       <c r="O181">
         <f t="shared" si="11"/>
-        <v>117.39690756066825</v>
+        <v>76.854316464356543</v>
       </c>
       <c r="P181">
         <f t="shared" si="12"/>
@@ -31863,7 +32951,7 @@
       </c>
       <c r="O182">
         <f t="shared" si="11"/>
-        <v>100.59485902666431</v>
+        <v>65.854793716157275</v>
       </c>
       <c r="P182">
         <f t="shared" si="12"/>
@@ -31932,7 +33020,7 @@
       </c>
       <c r="O183">
         <f t="shared" si="11"/>
-        <v>106.35707194885008</v>
+        <v>69.627047557067115</v>
       </c>
       <c r="P183">
         <f t="shared" si="12"/>
@@ -32001,7 +33089,7 @@
       </c>
       <c r="O184">
         <f t="shared" si="11"/>
-        <v>93.245378746800796</v>
+        <v>61.043429473148734</v>
       </c>
       <c r="P184">
         <f t="shared" si="12"/>
@@ -32070,7 +33158,7 @@
       </c>
       <c r="O185">
         <f t="shared" si="11"/>
-        <v>90.250918253638872</v>
+        <v>59.083094919510266</v>
       </c>
       <c r="P185">
         <f t="shared" si="12"/>
@@ -32139,7 +33227,7 @@
       </c>
       <c r="O186">
         <f t="shared" si="11"/>
-        <v>90.452724326112531</v>
+        <v>59.215208005626302</v>
       </c>
       <c r="P186">
         <f t="shared" si="12"/>
@@ -32208,7 +33296,7 @@
       </c>
       <c r="O187">
         <f t="shared" si="11"/>
-        <v>88.972118596463787</v>
+        <v>58.245924029840488</v>
       </c>
       <c r="P187">
         <f t="shared" si="12"/>
@@ -32276,8 +33364,8 @@
         <v>125.47375295043668</v>
       </c>
       <c r="O188">
-        <f t="shared" ref="O188:O232" si="21">N188/SQRT(3)</f>
-        <v>72.44230504216722</v>
+        <f t="shared" ref="O188:O232" si="21">N188/SQRT(7)</f>
+        <v>47.424620910401764</v>
       </c>
       <c r="P188">
         <f t="shared" si="12"/>
@@ -32346,7 +33434,7 @@
       </c>
       <c r="O189">
         <f t="shared" si="21"/>
-        <v>62.682754647438173</v>
+        <v>41.035495420032909</v>
       </c>
       <c r="P189">
         <f t="shared" si="12"/>
@@ -32415,7 +33503,7 @@
       </c>
       <c r="O190">
         <f t="shared" si="21"/>
-        <v>69.748092311401237</v>
+        <v>45.660844656537655</v>
       </c>
       <c r="P190">
         <f t="shared" si="12"/>
@@ -32484,7 +33572,7 @@
       </c>
       <c r="O191">
         <f t="shared" si="21"/>
-        <v>70.231904773020233</v>
+        <v>45.977574260470789</v>
       </c>
       <c r="P191">
         <f t="shared" si="12"/>
@@ -32553,7 +33641,7 @@
       </c>
       <c r="O192">
         <f t="shared" si="21"/>
-        <v>55.978465601600796</v>
+        <v>36.646507986688192</v>
       </c>
       <c r="P192">
         <f t="shared" si="12"/>
@@ -32622,7 +33710,7 @@
       </c>
       <c r="O193">
         <f t="shared" si="21"/>
-        <v>49.702497941452854</v>
+        <v>32.537922720727785</v>
       </c>
       <c r="P193">
         <f t="shared" si="12"/>
@@ -32691,7 +33779,7 @@
       </c>
       <c r="O194">
         <f t="shared" si="21"/>
-        <v>45.41211652082584</v>
+        <v>29.729208774977003</v>
       </c>
       <c r="P194">
         <f t="shared" si="12"/>
@@ -32760,7 +33848,7 @@
       </c>
       <c r="O195">
         <f t="shared" si="21"/>
-        <v>49.529599831948261</v>
+        <v>32.424734338682136</v>
       </c>
       <c r="P195">
         <f t="shared" ref="P195:P232" si="22">A195</f>
@@ -32829,7 +33917,7 @@
       </c>
       <c r="O196">
         <f t="shared" si="21"/>
-        <v>49.820431881519717</v>
+        <v>32.61512860749361</v>
       </c>
       <c r="P196">
         <f t="shared" si="22"/>
@@ -32898,7 +33986,7 @@
       </c>
       <c r="O197">
         <f t="shared" si="21"/>
-        <v>43.636284744579399</v>
+        <v>28.566653984097403</v>
       </c>
       <c r="P197">
         <f t="shared" si="22"/>
@@ -32967,7 +34055,7 @@
       </c>
       <c r="O198">
         <f t="shared" si="21"/>
-        <v>35.801018608378349</v>
+        <v>23.437268247059482</v>
       </c>
       <c r="P198">
         <f t="shared" si="22"/>
@@ -33036,7 +34124,7 @@
       </c>
       <c r="O199">
         <f t="shared" si="21"/>
-        <v>25.664141275677775</v>
+        <v>16.801124291690559</v>
       </c>
       <c r="P199">
         <f t="shared" si="22"/>
@@ -33105,7 +34193,7 @@
       </c>
       <c r="O200">
         <f t="shared" si="21"/>
-        <v>26.447329683612086</v>
+        <v>17.313841457800695</v>
       </c>
       <c r="P200">
         <f t="shared" si="22"/>
@@ -33174,7 +34262,7 @@
       </c>
       <c r="O201">
         <f t="shared" si="21"/>
-        <v>25.126967574425798</v>
+        <v>16.449461556358163</v>
       </c>
       <c r="P201">
         <f t="shared" si="22"/>
@@ -33243,7 +34331,7 @@
       </c>
       <c r="O202">
         <f t="shared" si="21"/>
-        <v>18.934429968465697</v>
+        <v>12.395494081619194</v>
       </c>
       <c r="P202">
         <f t="shared" si="22"/>
@@ -33312,7 +34400,7 @@
       </c>
       <c r="O203">
         <f t="shared" si="21"/>
-        <v>15.639414628927769</v>
+        <v>10.238400194551598</v>
       </c>
       <c r="P203">
         <f t="shared" si="22"/>
@@ -33381,7 +34469,7 @@
       </c>
       <c r="O204">
         <f t="shared" si="21"/>
-        <v>17.323926718518447</v>
+        <v>11.341172217354101</v>
       </c>
       <c r="P204">
         <f t="shared" si="22"/>
@@ -33450,7 +34538,7 @@
       </c>
       <c r="O205">
         <f t="shared" si="21"/>
-        <v>19.749904998500998</v>
+        <v>12.929347803402502</v>
       </c>
       <c r="P205">
         <f t="shared" si="22"/>
@@ -33519,7 +34607,7 @@
       </c>
       <c r="O206">
         <f t="shared" si="21"/>
-        <v>15.864951174101117</v>
+        <v>10.386048521728128</v>
       </c>
       <c r="P206">
         <f t="shared" si="22"/>
@@ -33588,7 +34676,7 @@
       </c>
       <c r="O207">
         <f t="shared" si="21"/>
-        <v>13.9495830809635</v>
+        <v>9.1321457687986474</v>
       </c>
       <c r="P207">
         <f t="shared" si="22"/>
@@ -33657,7 +34745,7 @@
       </c>
       <c r="O208">
         <f t="shared" si="21"/>
-        <v>11.232697849062362</v>
+        <v>7.3535268788422732</v>
       </c>
       <c r="P208">
         <f t="shared" si="22"/>
@@ -33726,7 +34814,7 @@
       </c>
       <c r="O209">
         <f t="shared" si="21"/>
-        <v>9.0104606984197648</v>
+        <v>5.8987311709904615</v>
       </c>
       <c r="P209">
         <f t="shared" si="22"/>
@@ -33795,7 +34883,7 @@
       </c>
       <c r="O210">
         <f t="shared" si="21"/>
-        <v>13.18548152518629</v>
+        <v>8.631923880515421</v>
       </c>
       <c r="P210">
         <f t="shared" si="22"/>
@@ -33864,7 +34952,7 @@
       </c>
       <c r="O211">
         <f t="shared" si="21"/>
-        <v>9.5903672555161545</v>
+        <v>6.2783691272612385</v>
       </c>
       <c r="P211">
         <f t="shared" si="22"/>
@@ -33933,7 +35021,7 @@
       </c>
       <c r="O212">
         <f t="shared" si="21"/>
-        <v>7.014887387105369</v>
+        <v>4.5923217775716205</v>
       </c>
       <c r="P212">
         <f t="shared" si="22"/>
@@ -34002,7 +35090,7 @@
       </c>
       <c r="O213">
         <f t="shared" si="21"/>
-        <v>10.821640862514471</v>
+        <v>7.0844269137285378</v>
       </c>
       <c r="P213">
         <f t="shared" si="22"/>
@@ -34071,7 +35159,7 @@
       </c>
       <c r="O214">
         <f t="shared" si="21"/>
-        <v>6.5202866175445591</v>
+        <v>4.268529568243645</v>
       </c>
       <c r="P214">
         <f t="shared" si="22"/>
@@ -34140,7 +35228,7 @@
       </c>
       <c r="O215">
         <f t="shared" si="21"/>
-        <v>4.3364603968056832</v>
+        <v>2.8388797166486111</v>
       </c>
       <c r="P215">
         <f t="shared" si="22"/>
@@ -34209,7 +35297,7 @@
       </c>
       <c r="O216">
         <f t="shared" si="21"/>
-        <v>4.9866115460945215</v>
+        <v>3.2645035530455591</v>
       </c>
       <c r="P216">
         <f t="shared" si="22"/>
@@ -34278,7 +35366,7 @@
       </c>
       <c r="O217">
         <f t="shared" si="21"/>
-        <v>5.2373173100732053</v>
+        <v>3.4286290017018524</v>
       </c>
       <c r="P217">
         <f t="shared" si="22"/>
@@ -34347,7 +35435,7 @@
       </c>
       <c r="O218">
         <f t="shared" si="21"/>
-        <v>8.2015290904364644</v>
+        <v>5.3691611244724884</v>
       </c>
       <c r="P218">
         <f t="shared" si="22"/>
@@ -34416,7 +35504,7 @@
       </c>
       <c r="O219">
         <f t="shared" si="21"/>
-        <v>3.6632850697115034</v>
+        <v>2.3981830177363634</v>
       </c>
       <c r="P219">
         <f t="shared" si="22"/>
@@ -34485,7 +35573,7 @@
       </c>
       <c r="O220">
         <f t="shared" si="21"/>
-        <v>6.4679823486593451</v>
+        <v>4.2342883866242431</v>
       </c>
       <c r="P220">
         <f t="shared" si="22"/>
@@ -34554,7 +35642,7 @@
       </c>
       <c r="O221">
         <f t="shared" si="21"/>
-        <v>3.6322511335088272</v>
+        <v>2.3778665374847643</v>
       </c>
       <c r="P221">
         <f t="shared" si="22"/>
@@ -34623,7 +35711,7 @@
       </c>
       <c r="O222">
         <f t="shared" si="21"/>
-        <v>5.0177405331715477</v>
+        <v>3.2848822587009554</v>
       </c>
       <c r="P222">
         <f t="shared" si="22"/>
@@ -34692,7 +35780,7 @@
       </c>
       <c r="O223">
         <f t="shared" si="21"/>
-        <v>4.9896363653417817</v>
+        <v>3.2664837620690061</v>
       </c>
       <c r="P223">
         <f t="shared" si="22"/>
@@ -34745,7 +35833,7 @@
       </c>
       <c r="O224">
         <f t="shared" si="21"/>
-        <v>4.3205512677499733</v>
+        <v>2.8284647469145243</v>
       </c>
       <c r="P224">
         <f t="shared" si="22"/>
@@ -34798,7 +35886,7 @@
       </c>
       <c r="O225">
         <f t="shared" si="21"/>
-        <v>3.6369847343513482</v>
+        <v>2.380965406651987</v>
       </c>
       <c r="P225">
         <f t="shared" si="22"/>
@@ -34851,7 +35939,7 @@
       </c>
       <c r="O226">
         <f t="shared" si="21"/>
-        <v>4.7208499951708527</v>
+        <v>3.0905217782003347</v>
       </c>
       <c r="P226">
         <f t="shared" si="22"/>
@@ -34904,7 +35992,7 @@
       </c>
       <c r="O227">
         <f t="shared" si="21"/>
-        <v>3.3406633170631452</v>
+        <v>2.1869775031148748</v>
       </c>
       <c r="P227">
         <f t="shared" si="22"/>
@@ -34957,7 +36045,7 @@
       </c>
       <c r="O228">
         <f t="shared" si="21"/>
-        <v>1.5360028443780314</v>
+        <v>1.0055499002899719</v>
       </c>
       <c r="P228">
         <f t="shared" si="22"/>
@@ -35010,7 +36098,7 @@
       </c>
       <c r="O229">
         <f t="shared" si="21"/>
-        <v>3.7664539685783356</v>
+        <v>2.4657229160824352</v>
       </c>
       <c r="P229">
         <f t="shared" si="22"/>
@@ -35063,7 +36151,7 @@
       </c>
       <c r="O230">
         <f t="shared" si="21"/>
-        <v>6.9548187461223092</v>
+        <v>4.55299762125762</v>
       </c>
       <c r="P230">
         <f t="shared" si="22"/>
@@ -35116,7 +36204,7 @@
       </c>
       <c r="O231">
         <f t="shared" si="21"/>
-        <v>6.976952011744193</v>
+        <v>4.5674872448417414</v>
       </c>
       <c r="P231">
         <f t="shared" si="22"/>
@@ -35169,7 +36257,7 @@
       </c>
       <c r="O232">
         <f t="shared" si="21"/>
-        <v>4.3088079426134724</v>
+        <v>2.8207769360075967</v>
       </c>
       <c r="P232">
         <f t="shared" si="22"/>
